--- a/medicine/Psychotrope/Brauerei_Frankenheim/Brauerei_Frankenheim.xlsx
+++ b/medicine/Psychotrope/Brauerei_Frankenheim/Brauerei_Frankenheim.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Düsseldorfer Privatbrauerei Frankenheim GmbH &amp; Co. KG est une brasserie à Düsseldorf.
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie privée Frankenheim est fondée en 1873 par Heinrich Frankenheim à Düsseldorf. Pendant plus de 100 ans, la brasserie est une entreprise familiale. Cela ne change que lorsque Peter Frankenheim (1947-2013), représentant de la quatrième génération, vend la majorité des actions à Warsteiner.
 En 1991, la brasserie est transférée à Neuss-Holzheim, lorsque la croissance de l'entreprise familiale rend nécessaire une augmentation de la capacité, ce qui n'est plus possible à Düsseldorf. Il y a aussi un restaurant juste sur le site de la brasserie, qui attire un grand nombre de visiteurs, en particulier pendant les périodes de carnaval et du Holzheimer Bürgerschützenfest.
@@ -546,7 +560,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Frankenheim Alt, une altbier avec une teneur en alcool de 4,8% vol.
 Frankenheim blond, Altbier Helles avec une teneur en alcool de 4,8% vol.
